--- a/Data/Excels/item.xlsx
+++ b/Data/Excels/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameOff\GameOffJam2022\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EEF97B-A4A6-4607-A7CF-BCC0AB389BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920ACA0-D7BA-461B-A721-DEA6E7A5CFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>##</t>
   </si>
@@ -94,6 +94,61 @@
   </si>
   <si>
     <t>item_content</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clownfish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色小丑鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色小丑鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mola mola</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻车鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鲨鱼</t>
+  </si>
+  <si>
+    <t>Arowana</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼</t>
+  </si>
+  <si>
+    <t>item_effect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1= 道具
+2= 鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -524,26 +579,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,20 +609,23 @@
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,19 +636,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,72 +661,151 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4">
-        <v>1001</v>
+        <v>11001</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>1002</v>
+        <v>11002</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C9" s="4"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>21001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>21002</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>22001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>22002</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>23001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>23002</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
